--- a/SA_AUDIT_REMIDIATION.xlsx
+++ b/SA_AUDIT_REMIDIATION.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,11 +37,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -44,7 +49,13 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -74,7 +85,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -172,13 +183,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>246019</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>37214</xdr:rowOff>
+      <xdr:rowOff>138814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -195,8 +206,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9096375"/>
-          <a:ext cx="13047619" cy="7085714"/>
+          <a:off x="0" y="8572500"/>
+          <a:ext cx="14381119" cy="6615814"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -327,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,35 +584,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="17">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="17">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="17">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>